--- a/data/vgp_database/N_Montana_intrusions.xlsx
+++ b/data/vgp_database/N_Montana_intrusions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAF52FB-D2FF-CC49-8C17-EDDEA3DD33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A1A244-D29E-2E4D-894A-9F7A1967CC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="640" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="260">
   <si>
     <t>Name:</t>
   </si>
@@ -686,9 +686,6 @@
     <t>LB3</t>
   </si>
   <si>
-    <t>quatrz latite</t>
-  </si>
-  <si>
     <t>Radiometric age of 55.3 Ma listed for this site; recalculated from Marvin et al. (1973), but details and errors not provided.</t>
   </si>
   <si>
@@ -767,9 +764,6 @@
     <t>Granite</t>
   </si>
   <si>
-    <t>Quatrz Latite</t>
-  </si>
-  <si>
     <t>Rhyolite</t>
   </si>
   <si>
@@ -794,9 +788,6 @@
     <t>Not Specified</t>
   </si>
   <si>
-    <t>Pyroxnite</t>
-  </si>
-  <si>
     <t>Trachyte</t>
   </si>
   <si>
@@ -807,6 +798,24 @@
   </si>
   <si>
     <t>10.1029/JB088iB12p10593:https://geoinfo.nmt.edu/publications/periodicals/isochronwest/29/IW_v29_p05.pdf</t>
+  </si>
+  <si>
+    <t>Igneous:Intrusive</t>
+  </si>
+  <si>
+    <t>Igneous:Extrusive</t>
+  </si>
+  <si>
+    <t>Pyroxenite</t>
+  </si>
+  <si>
+    <t>Pluton</t>
+  </si>
+  <si>
+    <t>Lava</t>
+  </si>
+  <si>
+    <t>Quartz Latite</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AP4" sqref="AP4"/>
+    <sheetView tabSelected="1" topLeftCell="W98" workbookViewId="0">
+      <selection activeCell="AE113" sqref="AE113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1750,13 +1759,13 @@
         <v>27</v>
       </c>
       <c r="Z8" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA8" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="AA8" s="22" t="s">
+      <c r="AB8" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="AB8" s="22" t="s">
-        <v>240</v>
       </c>
       <c r="AC8" s="4" t="s">
         <v>54</v>
@@ -1798,7 +1807,7 @@
         <v>40</v>
       </c>
       <c r="AP8" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AQ8" s="3"/>
     </row>
@@ -1866,8 +1875,14 @@
       <c r="Y9" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z9" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB9" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC9" s="8" t="s">
         <v>67</v>
@@ -1901,7 +1916,7 @@
         <v>69</v>
       </c>
       <c r="AP9" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ9" s="10"/>
     </row>
@@ -1969,8 +1984,14 @@
       <c r="Y10" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z10" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB10" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC10" s="8" t="s">
         <v>67</v>
@@ -2004,7 +2025,7 @@
         <v>69</v>
       </c>
       <c r="AP10" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ10" s="10"/>
     </row>
@@ -2072,8 +2093,14 @@
       <c r="Y11" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z11" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB11" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC11" s="8" t="s">
         <v>67</v>
@@ -2107,7 +2134,7 @@
         <v>69</v>
       </c>
       <c r="AP11" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ11" s="10"/>
     </row>
@@ -2175,8 +2202,14 @@
       <c r="Y12" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z12" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB12" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC12" s="8" t="s">
         <v>67</v>
@@ -2210,7 +2243,7 @@
         <v>69</v>
       </c>
       <c r="AP12" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ12" s="10"/>
     </row>
@@ -2276,8 +2309,14 @@
       <c r="Y13" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="Z13" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB13" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AC13" s="8" t="s">
         <v>67</v>
@@ -2311,7 +2350,7 @@
         <v>69</v>
       </c>
       <c r="AP13" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ13" s="10"/>
     </row>
@@ -2375,8 +2414,14 @@
       <c r="Y14" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="Z14" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB14" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC14" s="8" t="s">
         <v>67</v>
@@ -2412,7 +2457,7 @@
         <v>69</v>
       </c>
       <c r="AP14" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ14" s="10"/>
     </row>
@@ -2480,8 +2525,14 @@
       <c r="Y15" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z15" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB15" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC15" s="8" t="s">
         <v>67</v>
@@ -2515,7 +2566,7 @@
         <v>69</v>
       </c>
       <c r="AP15" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ15" s="10"/>
     </row>
@@ -2581,8 +2632,14 @@
       <c r="Y16" s="8" t="s">
         <v>81</v>
       </c>
+      <c r="Z16" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB16" s="10" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AC16" s="8" t="s">
         <v>67</v>
@@ -2616,7 +2673,7 @@
         <v>69</v>
       </c>
       <c r="AP16" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ16" s="10"/>
     </row>
@@ -2684,8 +2741,14 @@
       <c r="Y17" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="Z17" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB17" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AC17" s="8" t="s">
         <v>67</v>
@@ -2719,7 +2782,7 @@
         <v>84</v>
       </c>
       <c r="AP17" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ17" s="10"/>
     </row>
@@ -2787,8 +2850,14 @@
       <c r="Y18" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z18" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB18" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC18" s="8" t="s">
         <v>67</v>
@@ -2822,7 +2891,7 @@
         <v>69</v>
       </c>
       <c r="AP18" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -2886,8 +2955,14 @@
       <c r="Y19" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z19" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB19" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC19" s="8" t="s">
         <v>67</v>
@@ -2923,7 +2998,7 @@
         <v>69</v>
       </c>
       <c r="AP19" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ19" s="10"/>
     </row>
@@ -2991,8 +3066,14 @@
       <c r="Y20" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z20" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB20" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC20" s="8" t="s">
         <v>67</v>
@@ -3026,7 +3107,7 @@
         <v>69</v>
       </c>
       <c r="AP20" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ20" s="10"/>
     </row>
@@ -3094,8 +3175,14 @@
       <c r="Y21" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z21" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB21" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC21" s="8" t="s">
         <v>67</v>
@@ -3129,7 +3216,7 @@
         <v>69</v>
       </c>
       <c r="AP21" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ21" s="10"/>
     </row>
@@ -3197,8 +3284,14 @@
       <c r="Y22" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z22" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB22" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC22" s="8" t="s">
         <v>67</v>
@@ -3232,7 +3325,7 @@
         <v>69</v>
       </c>
       <c r="AP22" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ22" s="10"/>
     </row>
@@ -3300,8 +3393,14 @@
       <c r="Y23" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z23" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB23" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC23" s="8" t="s">
         <v>67</v>
@@ -3335,7 +3434,7 @@
         <v>69</v>
       </c>
       <c r="AP23" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ23" s="10"/>
     </row>
@@ -3403,8 +3502,14 @@
       <c r="Y24" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z24" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB24" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC24" s="8" t="s">
         <v>67</v>
@@ -3440,7 +3545,7 @@
         <v>69</v>
       </c>
       <c r="AP24" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ24" s="10"/>
     </row>
@@ -3508,8 +3613,14 @@
       <c r="Y25" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z25" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB25" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC25" s="8" t="s">
         <v>67</v>
@@ -3545,7 +3656,7 @@
         <v>69</v>
       </c>
       <c r="AP25" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ25" s="10"/>
     </row>
@@ -3613,8 +3724,14 @@
       <c r="Y26" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z26" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA26" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB26" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC26" s="8" t="s">
         <v>67</v>
@@ -3648,7 +3765,7 @@
         <v>69</v>
       </c>
       <c r="AP26" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ26" s="10"/>
     </row>
@@ -3716,8 +3833,14 @@
       <c r="Y27" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z27" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB27" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC27" s="8" t="s">
         <v>67</v>
@@ -3751,7 +3874,7 @@
         <v>69</v>
       </c>
       <c r="AP27" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ27" s="10"/>
     </row>
@@ -3815,8 +3938,14 @@
       <c r="Y28" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z28" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA28" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB28" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC28" s="8" t="s">
         <v>67</v>
@@ -3852,7 +3981,7 @@
         <v>69</v>
       </c>
       <c r="AP28" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ28" s="10"/>
     </row>
@@ -3920,8 +4049,14 @@
       <c r="Y29" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z29" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA29" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB29" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC29" s="8" t="s">
         <v>67</v>
@@ -3955,7 +4090,7 @@
         <v>69</v>
       </c>
       <c r="AP29" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ29" s="10"/>
     </row>
@@ -4023,8 +4158,14 @@
       <c r="Y30" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z30" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB30" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC30" s="8" t="s">
         <v>67</v>
@@ -4058,7 +4199,7 @@
         <v>69</v>
       </c>
       <c r="AP30" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ30" s="10"/>
     </row>
@@ -4126,8 +4267,14 @@
       <c r="Y31" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z31" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA31" s="10" t="s">
+        <v>257</v>
+      </c>
       <c r="AB31" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC31" s="8" t="s">
         <v>67</v>
@@ -4161,7 +4308,7 @@
         <v>69</v>
       </c>
       <c r="AP31" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ31" s="10"/>
     </row>
@@ -4229,8 +4376,14 @@
       <c r="Y32" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z32" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA32" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB32" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC32" s="8" t="s">
         <v>67</v>
@@ -4266,7 +4419,7 @@
         <v>69</v>
       </c>
       <c r="AP32" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ32" s="10"/>
     </row>
@@ -4334,8 +4487,14 @@
       <c r="Y33" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z33" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA33" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB33" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC33" s="8" t="s">
         <v>67</v>
@@ -4371,7 +4530,7 @@
         <v>69</v>
       </c>
       <c r="AP33" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ33" s="10"/>
     </row>
@@ -4439,8 +4598,14 @@
       <c r="Y34" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z34" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA34" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB34" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC34" s="8" t="s">
         <v>67</v>
@@ -4476,7 +4641,7 @@
         <v>69</v>
       </c>
       <c r="AP34" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ34" s="10"/>
     </row>
@@ -4544,8 +4709,14 @@
       <c r="Y35" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z35" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA35" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB35" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC35" s="8" t="s">
         <v>67</v>
@@ -4581,7 +4752,7 @@
         <v>69</v>
       </c>
       <c r="AP35" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ35" s="10"/>
     </row>
@@ -4649,8 +4820,14 @@
       <c r="Y36" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z36" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA36" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB36" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC36" s="8" t="s">
         <v>67</v>
@@ -4688,7 +4865,7 @@
         <v>69</v>
       </c>
       <c r="AP36" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ36" s="10"/>
     </row>
@@ -4756,8 +4933,14 @@
       <c r="Y37" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z37" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA37" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB37" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC37" s="8" t="s">
         <v>67</v>
@@ -4793,7 +4976,7 @@
         <v>69</v>
       </c>
       <c r="AP37" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ37" s="10"/>
     </row>
@@ -4857,8 +5040,14 @@
       <c r="Y38" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z38" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA38" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB38" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC38" s="8" t="s">
         <v>67</v>
@@ -4896,7 +5085,7 @@
         <v>69</v>
       </c>
       <c r="AP38" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ38" s="10"/>
     </row>
@@ -4964,8 +5153,14 @@
       <c r="Y39" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z39" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA39" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB39" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC39" s="8" t="s">
         <v>67</v>
@@ -5001,7 +5196,7 @@
         <v>69</v>
       </c>
       <c r="AP39" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ39" s="10"/>
     </row>
@@ -5069,8 +5264,14 @@
       <c r="Y40" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z40" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA40" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB40" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC40" s="8" t="s">
         <v>67</v>
@@ -5106,7 +5307,7 @@
         <v>69</v>
       </c>
       <c r="AP40" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ40" s="10"/>
     </row>
@@ -5174,8 +5375,14 @@
       <c r="Y41" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z41" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA41" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB41" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC41" s="8" t="s">
         <v>67</v>
@@ -5213,7 +5420,7 @@
         <v>69</v>
       </c>
       <c r="AP41" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ41" s="10"/>
     </row>
@@ -5281,8 +5488,14 @@
       <c r="Y42" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z42" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA42" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB42" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC42" s="8" t="s">
         <v>67</v>
@@ -5318,7 +5531,7 @@
         <v>69</v>
       </c>
       <c r="AP42" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ42" s="10"/>
     </row>
@@ -5386,8 +5599,14 @@
       <c r="Y43" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z43" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA43" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB43" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC43" s="8" t="s">
         <v>67</v>
@@ -5423,7 +5642,7 @@
         <v>69</v>
       </c>
       <c r="AP43" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ43" s="10"/>
     </row>
@@ -5491,8 +5710,14 @@
       <c r="Y44" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z44" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA44" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB44" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC44" s="8" t="s">
         <v>67</v>
@@ -5528,7 +5753,7 @@
         <v>69</v>
       </c>
       <c r="AP44" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ44" s="10"/>
     </row>
@@ -5596,8 +5821,14 @@
       <c r="Y45" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z45" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA45" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB45" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC45" s="8" t="s">
         <v>67</v>
@@ -5635,7 +5866,7 @@
         <v>69</v>
       </c>
       <c r="AP45" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ45" s="10"/>
     </row>
@@ -5699,8 +5930,14 @@
       <c r="Y46" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z46" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA46" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB46" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC46" s="8" t="s">
         <v>67</v>
@@ -5738,7 +5975,7 @@
         <v>69</v>
       </c>
       <c r="AP46" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ46" s="10"/>
     </row>
@@ -5806,8 +6043,14 @@
       <c r="Y47" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z47" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA47" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB47" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC47" s="8" t="s">
         <v>67</v>
@@ -5845,7 +6088,7 @@
         <v>69</v>
       </c>
       <c r="AP47" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ47" s="10"/>
     </row>
@@ -5913,8 +6156,14 @@
       <c r="Y48" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z48" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA48" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB48" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC48" s="8" t="s">
         <v>67</v>
@@ -5952,7 +6201,7 @@
         <v>69</v>
       </c>
       <c r="AP48" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ48" s="10"/>
     </row>
@@ -6016,8 +6265,14 @@
       <c r="Y49" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z49" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA49" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB49" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC49" s="8" t="s">
         <v>67</v>
@@ -6055,7 +6310,7 @@
         <v>69</v>
       </c>
       <c r="AP49" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ49" s="10"/>
     </row>
@@ -6123,8 +6378,14 @@
       <c r="Y50" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z50" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA50" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB50" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC50" s="8" t="s">
         <v>67</v>
@@ -6160,7 +6421,7 @@
         <v>69</v>
       </c>
       <c r="AP50" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ50" s="10"/>
     </row>
@@ -6228,8 +6489,14 @@
       <c r="Y51" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z51" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA51" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB51" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC51" s="8" t="s">
         <v>67</v>
@@ -6267,7 +6534,7 @@
         <v>69</v>
       </c>
       <c r="AP51" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ51" s="10"/>
     </row>
@@ -6335,8 +6602,14 @@
       <c r="Y52" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z52" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA52" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB52" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC52" s="8" t="s">
         <v>67</v>
@@ -6372,7 +6645,7 @@
         <v>69</v>
       </c>
       <c r="AP52" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ52" s="10"/>
     </row>
@@ -6440,8 +6713,14 @@
       <c r="Y53" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z53" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA53" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB53" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC53" s="8" t="s">
         <v>67</v>
@@ -6477,7 +6756,7 @@
         <v>69</v>
       </c>
       <c r="AP53" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ53" s="10"/>
     </row>
@@ -6545,8 +6824,14 @@
       <c r="Y54" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="Z54" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA54" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="AB54" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC54" s="8" t="s">
         <v>67</v>
@@ -6584,7 +6869,7 @@
         <v>69</v>
       </c>
       <c r="AP54" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ54" s="10"/>
     </row>
@@ -6650,8 +6935,14 @@
       <c r="Y55" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z55" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA55" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB55" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC55" s="8" t="s">
         <v>67</v>
@@ -6685,7 +6976,7 @@
         <v>69</v>
       </c>
       <c r="AP55" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ55" s="10"/>
     </row>
@@ -6751,8 +7042,14 @@
       <c r="Y56" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z56" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA56" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB56" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC56" s="8" t="s">
         <v>67</v>
@@ -6786,7 +7083,7 @@
         <v>69</v>
       </c>
       <c r="AP56" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ56" s="10"/>
     </row>
@@ -6852,8 +7149,14 @@
       <c r="Y57" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="Z57" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA57" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB57" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AC57" s="8" t="s">
         <v>67</v>
@@ -6889,7 +7192,7 @@
         <v>69</v>
       </c>
       <c r="AP57" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ57" s="10"/>
     </row>
@@ -6951,8 +7254,14 @@
       <c r="Y58" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="Z58" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA58" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB58" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AC58" s="8" t="s">
         <v>67</v>
@@ -6988,7 +7297,7 @@
         <v>69</v>
       </c>
       <c r="AP58" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ58" s="10"/>
     </row>
@@ -7054,8 +7363,14 @@
       <c r="Y59" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z59" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA59" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB59" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC59" s="8" t="s">
         <v>67</v>
@@ -7089,7 +7404,7 @@
         <v>69</v>
       </c>
       <c r="AP59" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ59" s="10"/>
     </row>
@@ -7155,8 +7470,14 @@
       <c r="Y60" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z60" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA60" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB60" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC60" s="8" t="s">
         <v>67</v>
@@ -7190,7 +7511,7 @@
         <v>69</v>
       </c>
       <c r="AP60" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ60" s="10"/>
     </row>
@@ -7256,8 +7577,14 @@
       <c r="Y61" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z61" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA61" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB61" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC61" s="8" t="s">
         <v>67</v>
@@ -7291,7 +7618,7 @@
         <v>69</v>
       </c>
       <c r="AP61" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ61" s="10"/>
     </row>
@@ -7357,8 +7684,14 @@
       <c r="Y62" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z62" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA62" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB62" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC62" s="8" t="s">
         <v>67</v>
@@ -7392,7 +7725,7 @@
         <v>69</v>
       </c>
       <c r="AP62" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ62" s="10"/>
     </row>
@@ -7458,8 +7791,14 @@
       <c r="Y63" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z63" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA63" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB63" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC63" s="8" t="s">
         <v>67</v>
@@ -7493,7 +7832,7 @@
         <v>69</v>
       </c>
       <c r="AP63" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ63" s="10"/>
     </row>
@@ -7559,8 +7898,14 @@
       <c r="Y64" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z64" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA64" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB64" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC64" s="8" t="s">
         <v>67</v>
@@ -7594,7 +7939,7 @@
         <v>69</v>
       </c>
       <c r="AP64" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ64" s="10"/>
     </row>
@@ -7660,8 +8005,14 @@
       <c r="Y65" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z65" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA65" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB65" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC65" s="8" t="s">
         <v>67</v>
@@ -7695,7 +8046,7 @@
         <v>69</v>
       </c>
       <c r="AP65" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ65" s="10"/>
     </row>
@@ -7757,8 +8108,14 @@
       <c r="Y66" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z66" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA66" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB66" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC66" s="8" t="s">
         <v>67</v>
@@ -7794,7 +8151,7 @@
         <v>69</v>
       </c>
       <c r="AP66" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ66" s="10"/>
     </row>
@@ -7856,8 +8213,14 @@
       <c r="Y67" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z67" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA67" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB67" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC67" s="8" t="s">
         <v>67</v>
@@ -7893,7 +8256,7 @@
         <v>69</v>
       </c>
       <c r="AP67" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ67" s="10"/>
     </row>
@@ -7959,8 +8322,14 @@
       <c r="Y68" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z68" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA68" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB68" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC68" s="8" t="s">
         <v>67</v>
@@ -7994,7 +8363,7 @@
         <v>69</v>
       </c>
       <c r="AP68" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ68" s="10"/>
     </row>
@@ -8060,8 +8429,14 @@
       <c r="Y69" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z69" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA69" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB69" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC69" s="8" t="s">
         <v>67</v>
@@ -8095,7 +8470,7 @@
         <v>69</v>
       </c>
       <c r="AP69" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ69" s="10"/>
     </row>
@@ -8161,8 +8536,14 @@
       <c r="Y70" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z70" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA70" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB70" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC70" s="8" t="s">
         <v>67</v>
@@ -8196,7 +8577,7 @@
         <v>69</v>
       </c>
       <c r="AP70" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ70" s="10"/>
     </row>
@@ -8262,8 +8643,14 @@
       <c r="Y71" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z71" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA71" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB71" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC71" s="8" t="s">
         <v>67</v>
@@ -8297,7 +8684,7 @@
         <v>69</v>
       </c>
       <c r="AP71" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ71" s="10"/>
     </row>
@@ -8363,8 +8750,14 @@
       <c r="Y72" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z72" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA72" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB72" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC72" s="8" t="s">
         <v>67</v>
@@ -8400,7 +8793,7 @@
         <v>69</v>
       </c>
       <c r="AP72" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ72" s="10"/>
     </row>
@@ -8466,8 +8859,14 @@
       <c r="Y73" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z73" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA73" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB73" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC73" s="8" t="s">
         <v>67</v>
@@ -8501,7 +8900,7 @@
         <v>69</v>
       </c>
       <c r="AP73" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ73" s="10"/>
     </row>
@@ -8567,8 +8966,14 @@
       <c r="Y74" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z74" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA74" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB74" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC74" s="8" t="s">
         <v>67</v>
@@ -8602,7 +9007,7 @@
         <v>69</v>
       </c>
       <c r="AP74" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ74" s="10"/>
     </row>
@@ -8668,8 +9073,14 @@
       <c r="Y75" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z75" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA75" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB75" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC75" s="8" t="s">
         <v>67</v>
@@ -8703,7 +9114,7 @@
         <v>69</v>
       </c>
       <c r="AP75" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ75" s="10"/>
     </row>
@@ -8769,8 +9180,14 @@
       <c r="Y76" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z76" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA76" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB76" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC76" s="8" t="s">
         <v>67</v>
@@ -8804,7 +9221,7 @@
         <v>151</v>
       </c>
       <c r="AP76" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ76" s="10"/>
     </row>
@@ -8870,8 +9287,14 @@
       <c r="Y77" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z77" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA77" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB77" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC77" s="8" t="s">
         <v>67</v>
@@ -8905,7 +9328,7 @@
         <v>151</v>
       </c>
       <c r="AP77" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ77" s="10"/>
     </row>
@@ -8971,8 +9394,14 @@
       <c r="Y78" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z78" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA78" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB78" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC78" s="8" t="s">
         <v>67</v>
@@ -9006,7 +9435,7 @@
         <v>69</v>
       </c>
       <c r="AP78" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ78" s="10"/>
     </row>
@@ -9072,8 +9501,14 @@
       <c r="Y79" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z79" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA79" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB79" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC79" s="8" t="s">
         <v>67</v>
@@ -9107,7 +9542,7 @@
         <v>69</v>
       </c>
       <c r="AP79" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ79" s="10"/>
     </row>
@@ -9171,8 +9606,14 @@
       <c r="Y80" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z80" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA80" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB80" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC80" s="8" t="s">
         <v>67</v>
@@ -9206,7 +9647,7 @@
         <v>69</v>
       </c>
       <c r="AP80" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ80" s="10"/>
     </row>
@@ -9272,8 +9713,14 @@
       <c r="Y81" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z81" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA81" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB81" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC81" s="8" t="s">
         <v>67</v>
@@ -9307,7 +9754,7 @@
         <v>69</v>
       </c>
       <c r="AP81" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ81" s="10"/>
     </row>
@@ -9373,8 +9820,14 @@
       <c r="Y82" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z82" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA82" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB82" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC82" s="8" t="s">
         <v>67</v>
@@ -9408,7 +9861,7 @@
         <v>69</v>
       </c>
       <c r="AP82" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ82" s="10"/>
     </row>
@@ -9474,8 +9927,14 @@
       <c r="Y83" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z83" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA83" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB83" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC83" s="8" t="s">
         <v>67</v>
@@ -9509,7 +9968,7 @@
         <v>69</v>
       </c>
       <c r="AP83" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ83" s="10"/>
     </row>
@@ -9575,8 +10034,14 @@
       <c r="Y84" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z84" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA84" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB84" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC84" s="8" t="s">
         <v>67</v>
@@ -9610,7 +10075,7 @@
         <v>69</v>
       </c>
       <c r="AP84" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ84" s="10"/>
     </row>
@@ -9672,8 +10137,14 @@
       <c r="Y85" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z85" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA85" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB85" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC85" s="8" t="s">
         <v>67</v>
@@ -9709,7 +10180,7 @@
         <v>69</v>
       </c>
       <c r="AP85" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ85" s="10"/>
     </row>
@@ -9775,8 +10246,14 @@
       <c r="Y86" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z86" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA86" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB86" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC86" s="8" t="s">
         <v>67</v>
@@ -9810,7 +10287,7 @@
         <v>69</v>
       </c>
       <c r="AP86" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ86" s="10"/>
     </row>
@@ -9872,8 +10349,14 @@
       <c r="Y87" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z87" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA87" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB87" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC87" s="8" t="s">
         <v>67</v>
@@ -9909,7 +10392,7 @@
         <v>69</v>
       </c>
       <c r="AP87" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ87" s="10"/>
     </row>
@@ -9973,8 +10456,14 @@
       <c r="Y88" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z88" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA88" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB88" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC88" s="8" t="s">
         <v>67</v>
@@ -10008,7 +10497,7 @@
         <v>69</v>
       </c>
       <c r="AP88" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ88" s="10"/>
     </row>
@@ -10074,8 +10563,14 @@
       <c r="Y89" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z89" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA89" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB89" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC89" s="8" t="s">
         <v>67</v>
@@ -10109,7 +10604,7 @@
         <v>69</v>
       </c>
       <c r="AP89" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ89" s="10"/>
     </row>
@@ -10175,8 +10670,14 @@
       <c r="Y90" s="8" t="s">
         <v>130</v>
       </c>
+      <c r="Z90" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA90" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB90" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC90" s="8" t="s">
         <v>67</v>
@@ -10210,7 +10711,7 @@
         <v>69</v>
       </c>
       <c r="AP90" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ90" s="10"/>
     </row>
@@ -10276,8 +10777,14 @@
       <c r="Y91" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z91" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA91" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB91" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC91" s="8" t="s">
         <v>67</v>
@@ -10311,7 +10818,7 @@
         <v>69</v>
       </c>
       <c r="AP91" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ91" s="10"/>
     </row>
@@ -10375,8 +10882,14 @@
       <c r="Y92" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="Z92" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA92" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB92" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC92" s="8" t="s">
         <v>67</v>
@@ -10410,7 +10923,7 @@
         <v>69</v>
       </c>
       <c r="AP92" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ92" s="10"/>
     </row>
@@ -10476,8 +10989,14 @@
       <c r="Y93" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z93" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA93" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB93" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC93" s="8" t="s">
         <v>67</v>
@@ -10511,7 +11030,7 @@
         <v>69</v>
       </c>
       <c r="AP93" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ93" s="10"/>
     </row>
@@ -10575,8 +11094,14 @@
       <c r="Y94" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z94" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA94" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB94" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC94" s="8" t="s">
         <v>67</v>
@@ -10610,7 +11135,7 @@
         <v>69</v>
       </c>
       <c r="AP94" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ94" s="10"/>
     </row>
@@ -10676,8 +11201,14 @@
       <c r="Y95" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z95" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA95" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB95" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC95" s="8" t="s">
         <v>67</v>
@@ -10711,7 +11242,7 @@
         <v>69</v>
       </c>
       <c r="AP95" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ95" s="10"/>
     </row>
@@ -10777,8 +11308,14 @@
       <c r="Y96" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z96" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA96" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB96" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC96" s="8" t="s">
         <v>67</v>
@@ -10812,7 +11349,7 @@
         <v>69</v>
       </c>
       <c r="AP96" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ96" s="10"/>
     </row>
@@ -10878,8 +11415,14 @@
       <c r="Y97" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z97" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA97" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB97" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC97" s="8" t="s">
         <v>67</v>
@@ -10913,7 +11456,7 @@
         <v>69</v>
       </c>
       <c r="AP97" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ97" s="10"/>
     </row>
@@ -10979,8 +11522,14 @@
       <c r="Y98" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z98" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA98" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB98" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC98" s="8" t="s">
         <v>67</v>
@@ -11014,7 +11563,7 @@
         <v>69</v>
       </c>
       <c r="AP98" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ98" s="10"/>
     </row>
@@ -11076,8 +11625,14 @@
       <c r="Y99" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z99" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA99" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB99" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC99" s="8" t="s">
         <v>67</v>
@@ -11113,7 +11668,7 @@
         <v>69</v>
       </c>
       <c r="AP99" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ99" s="10"/>
     </row>
@@ -11181,8 +11736,14 @@
       <c r="Y100" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="Z100" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA100" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB100" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AC100" s="8" t="s">
         <v>67</v>
@@ -11216,7 +11777,7 @@
         <v>69</v>
       </c>
       <c r="AP100" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ100" s="10"/>
     </row>
@@ -11284,8 +11845,14 @@
       <c r="Y101" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="Z101" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA101" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB101" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC101" s="8" t="s">
         <v>67</v>
@@ -11319,7 +11886,7 @@
         <v>69</v>
       </c>
       <c r="AP101" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ101" s="10"/>
     </row>
@@ -11385,8 +11952,14 @@
       <c r="Y102" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="Z102" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA102" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB102" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC102" s="8" t="s">
         <v>67</v>
@@ -11420,7 +11993,7 @@
         <v>69</v>
       </c>
       <c r="AP102" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ102" s="10"/>
     </row>
@@ -11482,8 +12055,14 @@
       <c r="Y103" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="Z103" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA103" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB103" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AC103" s="8" t="s">
         <v>67</v>
@@ -11519,7 +12098,7 @@
         <v>69</v>
       </c>
       <c r="AP103" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ103" s="10"/>
     </row>
@@ -11587,8 +12166,14 @@
       <c r="Y104" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="Z104" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA104" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB104" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AC104" s="8" t="s">
         <v>67</v>
@@ -11622,7 +12207,7 @@
         <v>69</v>
       </c>
       <c r="AP104" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ104" s="10"/>
     </row>
@@ -11690,8 +12275,14 @@
       <c r="Y105" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="Z105" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA105" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB105" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC105" s="8" t="s">
         <v>67</v>
@@ -11725,7 +12316,7 @@
         <v>69</v>
       </c>
       <c r="AP105" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ105" s="10"/>
     </row>
@@ -11789,8 +12380,14 @@
       <c r="Y106" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="Z106" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA106" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB106" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC106" s="8" t="s">
         <v>67</v>
@@ -11826,7 +12423,7 @@
         <v>69</v>
       </c>
       <c r="AP106" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ106" s="10"/>
     </row>
@@ -11890,8 +12487,14 @@
       <c r="Y107" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="Z107" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA107" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB107" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AC107" s="8" t="s">
         <v>67</v>
@@ -11927,7 +12530,7 @@
         <v>69</v>
       </c>
       <c r="AP107" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ107" s="10"/>
     </row>
@@ -11995,8 +12598,14 @@
       <c r="Y108" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="Z108" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA108" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB108" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC108" s="8" t="s">
         <v>67</v>
@@ -12030,7 +12639,7 @@
         <v>69</v>
       </c>
       <c r="AP108" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ108" s="10"/>
     </row>
@@ -12098,8 +12707,14 @@
       <c r="Y109" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="Z109" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA109" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB109" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC109" s="8" t="s">
         <v>67</v>
@@ -12133,7 +12748,7 @@
         <v>69</v>
       </c>
       <c r="AP109" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ109" s="10"/>
     </row>
@@ -12201,8 +12816,14 @@
       <c r="Y110" s="8" t="s">
         <v>189</v>
       </c>
+      <c r="Z110" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA110" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB110" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AC110" s="8" t="s">
         <v>67</v>
@@ -12236,7 +12857,7 @@
         <v>69</v>
       </c>
       <c r="AP110" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ110" s="10"/>
     </row>
@@ -12304,8 +12925,14 @@
       <c r="Y111" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="Z111" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA111" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB111" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AC111" s="8" t="s">
         <v>67</v>
@@ -12339,7 +12966,7 @@
         <v>69</v>
       </c>
       <c r="AP111" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ111" s="10"/>
     </row>
@@ -12405,8 +13032,14 @@
       <c r="Y112" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="Z112" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA112" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB112" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AC112" s="8" t="s">
         <v>67</v>
@@ -12440,7 +13073,7 @@
         <v>69</v>
       </c>
       <c r="AP112" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ112" s="10"/>
     </row>
@@ -12508,8 +13141,14 @@
       <c r="Y113" s="8" t="s">
         <v>194</v>
       </c>
+      <c r="Z113" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA113" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB113" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC113" s="8" t="s">
         <v>67</v>
@@ -12543,7 +13182,7 @@
         <v>195</v>
       </c>
       <c r="AP113" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ113" s="10"/>
     </row>
@@ -12605,8 +13244,14 @@
       <c r="Y114" s="8" t="s">
         <v>194</v>
       </c>
+      <c r="Z114" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA114" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB114" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC114" s="8" t="s">
         <v>67</v>
@@ -12640,7 +13285,7 @@
         <v>69</v>
       </c>
       <c r="AP114" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ114" s="10"/>
     </row>
@@ -12704,8 +13349,14 @@
       <c r="Y115" s="8" t="s">
         <v>194</v>
       </c>
+      <c r="Z115" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA115" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB115" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC115" s="8" t="s">
         <v>67</v>
@@ -12739,7 +13390,7 @@
         <v>69</v>
       </c>
       <c r="AP115" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ115" s="10"/>
     </row>
@@ -12803,8 +13454,14 @@
       <c r="Y116" s="8" t="s">
         <v>194</v>
       </c>
+      <c r="Z116" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA116" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB116" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC116" s="8" t="s">
         <v>67</v>
@@ -12838,7 +13495,7 @@
         <v>69</v>
       </c>
       <c r="AP116" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ116" s="10"/>
     </row>
@@ -12906,8 +13563,14 @@
       <c r="Y117" s="8" t="s">
         <v>194</v>
       </c>
+      <c r="Z117" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA117" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB117" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC117" s="8" t="s">
         <v>67</v>
@@ -12943,7 +13606,7 @@
         <v>200</v>
       </c>
       <c r="AP117" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ117" s="10"/>
     </row>
@@ -13011,8 +13674,14 @@
       <c r="Y118" s="8" t="s">
         <v>202</v>
       </c>
+      <c r="Z118" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA118" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB118" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AC118" s="8" t="s">
         <v>67</v>
@@ -13048,7 +13717,7 @@
         <v>69</v>
       </c>
       <c r="AP118" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ118" s="10"/>
     </row>
@@ -13116,8 +13785,14 @@
       <c r="Y119" s="8" t="s">
         <v>194</v>
       </c>
+      <c r="Z119" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA119" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB119" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC119" s="8" t="s">
         <v>67</v>
@@ -13151,7 +13826,7 @@
         <v>69</v>
       </c>
       <c r="AP119" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ119" s="10"/>
     </row>
@@ -13215,8 +13890,14 @@
       <c r="Y120" s="8" t="s">
         <v>205</v>
       </c>
+      <c r="Z120" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA120" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB120" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AC120" s="8" t="s">
         <v>67</v>
@@ -13252,7 +13933,7 @@
         <v>69</v>
       </c>
       <c r="AP120" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ120" s="10"/>
     </row>
@@ -13316,8 +13997,14 @@
       <c r="Y121" s="8" t="s">
         <v>207</v>
       </c>
+      <c r="Z121" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA121" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB121" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AC121" s="8" t="s">
         <v>67</v>
@@ -13351,7 +14038,7 @@
         <v>69</v>
       </c>
       <c r="AP121" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ121" s="10"/>
     </row>
@@ -13417,8 +14104,14 @@
       <c r="Y122" s="8" t="s">
         <v>205</v>
       </c>
+      <c r="Z122" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA122" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB122" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AC122" s="8" t="s">
         <v>67</v>
@@ -13452,7 +14145,7 @@
         <v>69</v>
       </c>
       <c r="AP122" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ122" s="10"/>
     </row>
@@ -13516,8 +14209,14 @@
       <c r="Y123" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="Z123" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA123" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB123" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC123" s="8" t="s">
         <v>67</v>
@@ -13551,7 +14250,7 @@
         <v>212</v>
       </c>
       <c r="AP123" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ123" s="10"/>
     </row>
@@ -13615,8 +14314,14 @@
       <c r="Y124" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="Z124" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA124" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB124" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC124" s="8" t="s">
         <v>67</v>
@@ -13650,7 +14355,7 @@
         <v>214</v>
       </c>
       <c r="AP124" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ124" s="10"/>
     </row>
@@ -13712,10 +14417,16 @@
         <v>65</v>
       </c>
       <c r="Y125" s="8" t="s">
-        <v>216</v>
+        <v>259</v>
+      </c>
+      <c r="Z125" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA125" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="AB125" s="10" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="AC125" s="8" t="s">
         <v>67</v>
@@ -13746,16 +14457,16 @@
       </c>
       <c r="AN125" s="9"/>
       <c r="AO125" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AP125" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ125" s="10"/>
     </row>
     <row r="126" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>210</v>
@@ -13813,8 +14524,14 @@
       <c r="Y126" s="8" t="s">
         <v>207</v>
       </c>
+      <c r="Z126" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA126" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB126" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AC126" s="8" t="s">
         <v>67</v>
@@ -13845,16 +14562,16 @@
       </c>
       <c r="AN126" s="9"/>
       <c r="AO126" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP126" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ126" s="10"/>
     </row>
     <row r="127" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>210</v>
@@ -13912,8 +14629,14 @@
       <c r="Y127" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="Z127" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA127" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB127" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC127" s="8" t="s">
         <v>67</v>
@@ -13945,19 +14668,19 @@
         <v>211</v>
       </c>
       <c r="AN127" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO127" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="AO127" s="21" t="s">
-        <v>222</v>
-      </c>
       <c r="AP127" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ127" s="10"/>
     </row>
     <row r="128" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B128" s="8" t="s">
         <v>210</v>
@@ -14015,8 +14738,14 @@
       <c r="Y128" s="8" t="s">
         <v>179</v>
       </c>
+      <c r="Z128" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA128" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB128" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC128" s="8" t="s">
         <v>67</v>
@@ -14049,16 +14778,16 @@
       </c>
       <c r="AN128" s="9"/>
       <c r="AO128" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP128" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ128" s="10"/>
     </row>
     <row r="129" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>210</v>
@@ -14116,8 +14845,14 @@
       <c r="Y129" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="Z129" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA129" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB129" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AC129" s="8" t="s">
         <v>67</v>
@@ -14148,16 +14883,16 @@
       </c>
       <c r="AN129" s="9"/>
       <c r="AO129" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP129" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ129" s="10"/>
     </row>
     <row r="130" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>210</v>
@@ -14211,8 +14946,14 @@
       <c r="Y130" s="8" t="s">
         <v>207</v>
       </c>
+      <c r="Z130" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA130" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB130" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AC130" s="8" t="s">
         <v>67</v>
@@ -14245,16 +14986,16 @@
       </c>
       <c r="AN130" s="9"/>
       <c r="AO130" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP130" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ130" s="10"/>
     </row>
     <row r="131" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>210</v>
@@ -14312,8 +15053,14 @@
       <c r="Y131" s="8" t="s">
         <v>207</v>
       </c>
+      <c r="Z131" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA131" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB131" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AC131" s="8" t="s">
         <v>67</v>
@@ -14344,16 +15091,16 @@
       </c>
       <c r="AN131" s="9"/>
       <c r="AO131" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP131" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ131" s="10"/>
     </row>
     <row r="132" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B132" s="8" t="s">
         <v>210</v>
@@ -14411,8 +15158,14 @@
       <c r="Y132" s="8" t="s">
         <v>207</v>
       </c>
+      <c r="Z132" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA132" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="AB132" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AC132" s="8" t="s">
         <v>67</v>
@@ -14443,16 +15196,16 @@
       </c>
       <c r="AN132" s="9"/>
       <c r="AO132" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AP132" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ132" s="10"/>
     </row>
     <row r="133" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>210</v>
@@ -14508,10 +15261,16 @@
         <v>65</v>
       </c>
       <c r="Y133" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="Z133" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA133" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="AB133" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AC133" s="8" t="s">
         <v>67</v>
@@ -14542,16 +15301,16 @@
       </c>
       <c r="AN133" s="9"/>
       <c r="AO133" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AP133" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ133" s="10"/>
     </row>
     <row r="134" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>210</v>
@@ -14607,10 +15366,16 @@
         <v>65</v>
       </c>
       <c r="Y134" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="Z134" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA134" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="AB134" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AC134" s="8" t="s">
         <v>67</v>
@@ -14641,16 +15406,16 @@
       </c>
       <c r="AN134" s="9"/>
       <c r="AO134" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AP134" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ134" s="10"/>
     </row>
     <row r="135" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>210</v>
@@ -14706,10 +15471,16 @@
         <v>65</v>
       </c>
       <c r="Y135" s="8" t="s">
-        <v>216</v>
+        <v>259</v>
+      </c>
+      <c r="Z135" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA135" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="AB135" s="10" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="AC135" s="8" t="s">
         <v>67</v>
@@ -14740,16 +15511,16 @@
       </c>
       <c r="AN135" s="9"/>
       <c r="AO135" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AP135" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ135" s="10"/>
     </row>
     <row r="136" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>210</v>
@@ -14805,10 +15576,16 @@
         <v>65</v>
       </c>
       <c r="Y136" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="Z136" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA136" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="AB136" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AC136" s="8" t="s">
         <v>67</v>
@@ -14841,10 +15618,10 @@
       </c>
       <c r="AN136" s="9"/>
       <c r="AO136" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AP136" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AQ136" s="10"/>
     </row>
